--- a/Ganttchart.xlsx
+++ b/Ganttchart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,40 +18,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
+    <t>Task</t>
+  </si>
+  <si>
     <t>Start Date</t>
   </si>
   <si>
     <t>Days to Complete</t>
   </si>
   <si>
-    <t>Task</t>
+    <t>Gathering requirements</t>
   </si>
   <si>
-    <t>Task 1</t>
+    <t>Analysis of requirements</t>
   </si>
   <si>
-    <t>Task 2</t>
+    <t>Project summary</t>
   </si>
   <si>
-    <t>Task 3</t>
+    <t>Risk assesmentt and mitigation</t>
   </si>
   <si>
-    <t>Task 4</t>
-  </si>
-  <si>
-    <t>Task 5</t>
+    <t>Traceability matrix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -59,7 +59,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -92,8 +92,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,11 +125,18 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -142,23 +149,9 @@
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
@@ -186,19 +179,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Task 1</c:v>
+                  <c:v>Gathering requirements</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Task 2</c:v>
+                  <c:v>Analysis of requirements</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Task 3</c:v>
+                  <c:v>Project summary</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Task 4</c:v>
+                  <c:v>Risk assesmentt and mitigation</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Task 5</c:v>
+                  <c:v>Traceability matrix</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -210,19 +203,19 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>43123</c:v>
+                  <c:v>43111</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>43115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43122</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>43125</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>43143</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43143</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>43143</c:v>
+                  <c:v>43131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -249,19 +242,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Task 1</c:v>
+                  <c:v>Gathering requirements</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Task 2</c:v>
+                  <c:v>Analysis of requirements</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Task 3</c:v>
+                  <c:v>Project summary</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Task 4</c:v>
+                  <c:v>Risk assesmentt and mitigation</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Task 5</c:v>
+                  <c:v>Traceability matrix</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -273,16 +266,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -300,14 +293,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="95"/>
-        <c:gapDepth val="95"/>
-        <c:shape val="box"/>
-        <c:axId val="55083008"/>
-        <c:axId val="55084544"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:overlap val="100"/>
+        <c:axId val="83715968"/>
+        <c:axId val="83717504"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="55083008"/>
+        <c:axId val="83715968"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -316,7 +307,24 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55084544"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83717504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -324,7 +332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55084544"/>
+        <c:axId val="83717504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41416"/>
@@ -336,7 +344,24 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55083008"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83715968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -345,12 +370,48 @@
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
         <c:showKeys val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
       </c:dTable>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -684,85 +745,86 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>43123</v>
+      <c r="B2" s="3">
+        <v>43111</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>43125</v>
+      <c r="B3" s="3">
+        <v>43115</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
-        <v>43143</v>
+      <c r="B4" s="3">
+        <v>43122</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
-        <v>43143</v>
+      <c r="B5" s="3">
+        <v>43125</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>43143</v>
+      <c r="B6" s="3">
+        <v>43131</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -772,9 +834,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -784,8 +846,8 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>